--- a/data/2025/permits-by-sector-2025.xlsx
+++ b/data/2025/permits-by-sector-2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fitzgeralda\Desktop\Web uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naughtm\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA89DF89-B915-493B-941F-8718EA83B992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5D2636-21DF-4398-ACB6-D17AF5CC1033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12816" xr2:uid="{FCDEB2F2-5C66-4732-9D00-ED6AEFD8621B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FCDEB2F2-5C66-4732-9D00-ED6AEFD8621B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Grand Total</t>
   </si>
@@ -53,12 +53,6 @@
     <t>Apr</t>
   </si>
   <si>
-    <t>Economic Sector</t>
-  </si>
-  <si>
-    <t>Issued</t>
-  </si>
-  <si>
     <t>A - Agriculture, Forestry &amp; Fishing</t>
   </si>
   <si>
@@ -71,9 +65,6 @@
     <t>C - Manufacture of Chemicals &amp; Pharmaceuticals</t>
   </si>
   <si>
-    <t>C - Manufacture of Computers, Electronics &amp; Optica</t>
-  </si>
-  <si>
     <t>C - Manufacture of Food, Drink &amp; Tobacco</t>
   </si>
   <si>
@@ -83,9 +74,6 @@
     <t>D - Electricity &amp; Gas &amp; Air Conditioning Supply</t>
   </si>
   <si>
-    <t>E - Water Supply - Sewerage Waste Management &amp; Rem</t>
-  </si>
-  <si>
     <t>F - Construction</t>
   </si>
   <si>
@@ -95,24 +83,12 @@
     <t>H - Transport &amp; Storage</t>
   </si>
   <si>
-    <t>I - Accommodation &amp; Food Services activities</t>
-  </si>
-  <si>
     <t>J - Information &amp; Communication Activities</t>
   </si>
   <si>
-    <t>K - Financial &amp; insurance Activities</t>
-  </si>
-  <si>
     <t>L - Real Estate Activities</t>
   </si>
   <si>
-    <t>M - All other Professional, Scientific &amp; Technical</t>
-  </si>
-  <si>
-    <t>M - Professional, Scientific&amp;Technical Activities</t>
-  </si>
-  <si>
     <t>N - Administrative &amp; Support Service Activities</t>
   </si>
   <si>
@@ -125,16 +101,46 @@
     <t>Q - Health &amp; Social Work Activities</t>
   </si>
   <si>
-    <t>R - Arts , Entertainment and Recreation</t>
-  </si>
-  <si>
-    <t>S - Other Service activities</t>
-  </si>
-  <si>
-    <t>T - Domestic- Activities of Households as Employer</t>
-  </si>
-  <si>
-    <t>*figures accurate to 18th April</t>
+    <t>C - Manufacture of Computers, Electronics &amp; Optical Equipment</t>
+  </si>
+  <si>
+    <t>E - Water Supply - Sewerage Waste Management &amp; Remedial Activities</t>
+  </si>
+  <si>
+    <t>I - Accommodation &amp; Food Services Activities</t>
+  </si>
+  <si>
+    <t>K - Financial &amp; Insurance Activities</t>
+  </si>
+  <si>
+    <t>M - All other Professional, Scientific &amp; Technical Activities</t>
+  </si>
+  <si>
+    <t>M - Professional, Scientific &amp; Technical Activities of Head Offices, Management Consultancy Services</t>
+  </si>
+  <si>
+    <t>R - Arts, Entertainment and Recreation</t>
+  </si>
+  <si>
+    <t>S - Other Service Activities</t>
+  </si>
+  <si>
+    <t>T - Domestic - Activities of Households as Employers</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>No Sector Entered</t>
   </si>
 </sst>
 </file>
@@ -159,16 +165,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -206,32 +210,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,590 +559,959 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9CDAC1-712D-4A4E-97E4-C82CE18F4827}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="93.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="9" t="s">
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4">
+        <v>3794</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2991</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3179</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1660</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1820</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1680</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2154</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2625</v>
+      </c>
+      <c r="J2" s="4">
+        <v>19903</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
+        <v>202</v>
+      </c>
+      <c r="C3" s="5">
+        <v>251</v>
+      </c>
+      <c r="D3" s="5">
+        <v>243</v>
+      </c>
+      <c r="E3" s="5">
+        <v>135</v>
+      </c>
+      <c r="F3" s="5">
+        <v>116</v>
+      </c>
+      <c r="G3" s="5">
+        <v>62</v>
+      </c>
+      <c r="H3" s="5">
+        <v>109</v>
+      </c>
+      <c r="I3" s="5">
+        <v>121</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5">
+        <v>8</v>
+      </c>
+      <c r="I4" s="5">
+        <v>9</v>
+      </c>
+      <c r="J4" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5">
+        <v>177</v>
+      </c>
+      <c r="C5" s="5">
+        <v>132</v>
+      </c>
+      <c r="D5" s="5">
+        <v>100</v>
+      </c>
+      <c r="E5" s="5">
+        <v>51</v>
+      </c>
+      <c r="F5" s="5">
+        <v>74</v>
+      </c>
+      <c r="G5" s="5">
+        <v>49</v>
+      </c>
+      <c r="H5" s="5">
+        <v>74</v>
+      </c>
+      <c r="I5" s="5">
+        <v>97</v>
+      </c>
+      <c r="J5" s="5">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5">
+        <v>56</v>
+      </c>
+      <c r="C6" s="5">
+        <v>65</v>
+      </c>
+      <c r="D6" s="5">
+        <v>47</v>
+      </c>
+      <c r="E6" s="5">
+        <v>47</v>
+      </c>
+      <c r="F6" s="5">
+        <v>34</v>
+      </c>
+      <c r="G6" s="5">
+        <v>21</v>
+      </c>
+      <c r="H6" s="5">
+        <v>34</v>
+      </c>
+      <c r="I6" s="5">
+        <v>59</v>
+      </c>
+      <c r="J6" s="5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5">
+        <v>33</v>
+      </c>
+      <c r="C7" s="5">
+        <v>70</v>
+      </c>
+      <c r="D7" s="5">
+        <v>49</v>
+      </c>
+      <c r="E7" s="5">
+        <v>18</v>
+      </c>
+      <c r="F7" s="5">
+        <v>23</v>
+      </c>
+      <c r="G7" s="5">
+        <v>36</v>
+      </c>
+      <c r="H7" s="5">
+        <v>31</v>
+      </c>
+      <c r="I7" s="5">
+        <v>29</v>
+      </c>
+      <c r="J7" s="5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5">
+        <v>54</v>
+      </c>
+      <c r="D8" s="5">
+        <v>69</v>
+      </c>
+      <c r="E8" s="5">
+        <v>46</v>
+      </c>
+      <c r="F8" s="5">
+        <v>49</v>
+      </c>
+      <c r="G8" s="5">
+        <v>29</v>
+      </c>
+      <c r="H8" s="5">
+        <v>31</v>
+      </c>
+      <c r="I8" s="5">
+        <v>79</v>
+      </c>
+      <c r="J8" s="5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5">
+        <v>41</v>
+      </c>
+      <c r="C9" s="5">
+        <v>29</v>
+      </c>
+      <c r="D9" s="5">
+        <v>27</v>
+      </c>
+      <c r="E9" s="5">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5">
+        <v>7</v>
+      </c>
+      <c r="G9" s="5">
+        <v>6</v>
+      </c>
+      <c r="H9" s="5">
+        <v>18</v>
+      </c>
+      <c r="I9" s="5">
+        <v>20</v>
+      </c>
+      <c r="J9" s="5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5">
+        <v>55</v>
+      </c>
+      <c r="C10" s="5">
+        <v>29</v>
+      </c>
+      <c r="D10" s="5">
+        <v>49</v>
+      </c>
+      <c r="E10" s="5">
+        <v>17</v>
+      </c>
+      <c r="F10" s="5">
+        <v>30</v>
+      </c>
+      <c r="G10" s="5">
+        <v>19</v>
+      </c>
+      <c r="H10" s="5">
+        <v>24</v>
+      </c>
+      <c r="I10" s="5">
+        <v>31</v>
+      </c>
+      <c r="J10" s="5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5">
+        <v>7</v>
+      </c>
+      <c r="F11" s="5">
+        <v>3</v>
+      </c>
+      <c r="G11" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="H11" s="5">
+        <v>5</v>
+      </c>
+      <c r="I11" s="5">
+        <v>12</v>
+      </c>
+      <c r="J11" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5">
+        <v>265</v>
+      </c>
+      <c r="C12" s="5">
+        <v>155</v>
+      </c>
+      <c r="D12" s="5">
+        <v>230</v>
+      </c>
+      <c r="E12" s="5">
+        <v>87</v>
+      </c>
+      <c r="F12" s="5">
+        <v>108</v>
+      </c>
+      <c r="G12" s="5">
+        <v>68</v>
+      </c>
+      <c r="H12" s="5">
+        <v>136</v>
+      </c>
+      <c r="I12" s="5">
+        <v>195</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5">
+        <v>68</v>
+      </c>
+      <c r="C13" s="5">
+        <v>42</v>
+      </c>
+      <c r="D13" s="5">
+        <v>55</v>
+      </c>
+      <c r="E13" s="5">
+        <v>32</v>
+      </c>
+      <c r="F13" s="5">
+        <v>35</v>
+      </c>
+      <c r="G13" s="5">
+        <v>22</v>
+      </c>
+      <c r="H13" s="5">
+        <v>39</v>
+      </c>
+      <c r="I13" s="5">
+        <v>44</v>
+      </c>
+      <c r="J13" s="5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5">
+        <v>124</v>
+      </c>
+      <c r="C14" s="5">
+        <v>108</v>
+      </c>
+      <c r="D14" s="5">
+        <v>83</v>
+      </c>
+      <c r="E14" s="5">
+        <v>46</v>
+      </c>
+      <c r="F14" s="5">
+        <v>174</v>
+      </c>
+      <c r="G14" s="5">
+        <v>92</v>
+      </c>
+      <c r="H14" s="5">
+        <v>149</v>
+      </c>
+      <c r="I14" s="5">
+        <v>128</v>
+      </c>
+      <c r="J14" s="5">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="5">
+        <v>556</v>
+      </c>
+      <c r="C15" s="5">
+        <v>387</v>
+      </c>
+      <c r="D15" s="5">
+        <v>458</v>
+      </c>
+      <c r="E15" s="5">
+        <v>169</v>
+      </c>
+      <c r="F15" s="5">
+        <v>220</v>
+      </c>
+      <c r="G15" s="5">
+        <v>123</v>
+      </c>
+      <c r="H15" s="5">
+        <v>174</v>
+      </c>
+      <c r="I15" s="5">
+        <v>215</v>
+      </c>
+      <c r="J15" s="5">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>462</v>
+      </c>
+      <c r="C16" s="5">
+        <v>364</v>
+      </c>
+      <c r="D16" s="5">
+        <v>371</v>
+      </c>
+      <c r="E16" s="5">
+        <v>229</v>
+      </c>
+      <c r="F16" s="5">
+        <v>224</v>
+      </c>
+      <c r="G16" s="5">
+        <v>196</v>
+      </c>
+      <c r="H16" s="5">
+        <v>243</v>
+      </c>
+      <c r="I16" s="5">
+        <v>302</v>
+      </c>
+      <c r="J16" s="5">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="5">
+        <v>163</v>
+      </c>
+      <c r="C17" s="5">
+        <v>141</v>
+      </c>
+      <c r="D17" s="5">
+        <v>143</v>
+      </c>
+      <c r="E17" s="5">
+        <v>90</v>
+      </c>
+      <c r="F17" s="5">
+        <v>79</v>
+      </c>
+      <c r="G17" s="5">
+        <v>109</v>
+      </c>
+      <c r="H17" s="5">
+        <v>110</v>
+      </c>
+      <c r="I17" s="5">
+        <v>163</v>
+      </c>
+      <c r="J17" s="5">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="C18" s="5">
+        <v>9</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>2</v>
+      </c>
+      <c r="H18" s="5">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="I18" s="5">
+        <v>2</v>
+      </c>
+      <c r="J18" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="5">
+        <v>96</v>
+      </c>
+      <c r="C19" s="5">
+        <v>47</v>
+      </c>
+      <c r="D19" s="5">
+        <v>86</v>
+      </c>
+      <c r="E19" s="5">
+        <v>39</v>
+      </c>
+      <c r="F19" s="5">
+        <v>49</v>
+      </c>
+      <c r="G19" s="5">
+        <v>41</v>
+      </c>
+      <c r="H19" s="5">
+        <v>49</v>
+      </c>
+      <c r="I19" s="5">
+        <v>67</v>
+      </c>
+      <c r="J19" s="5">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="5">
+        <v>30</v>
+      </c>
+      <c r="C20" s="5">
+        <v>31</v>
+      </c>
+      <c r="D20" s="5">
+        <v>26</v>
+      </c>
+      <c r="E20" s="5">
+        <v>23</v>
+      </c>
+      <c r="F20" s="5">
+        <v>12</v>
+      </c>
+      <c r="G20" s="5">
+        <v>11</v>
+      </c>
+      <c r="H20" s="5">
+        <v>24</v>
+      </c>
+      <c r="I20" s="5">
+        <v>29</v>
+      </c>
+      <c r="J20" s="5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="5">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5">
+        <v>11</v>
+      </c>
+      <c r="E21" s="5">
+        <v>7</v>
+      </c>
+      <c r="F21" s="5">
+        <v>5</v>
+      </c>
+      <c r="G21" s="5">
+        <v>2</v>
+      </c>
+      <c r="H21" s="5">
+        <v>9</v>
+      </c>
+      <c r="I21" s="5">
+        <v>12</v>
+      </c>
+      <c r="J21" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="5">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3</v>
+      </c>
+      <c r="D22" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="E22" s="5">
+        <v>4</v>
+      </c>
+      <c r="F22" s="5">
+        <v>3</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5">
+        <v>2</v>
+      </c>
+      <c r="I22" s="5">
         <v>5</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5">
-        <v>11426</v>
-      </c>
-      <c r="C5" s="5">
-        <v>3771</v>
-      </c>
-      <c r="D5" s="5">
-        <v>2974</v>
-      </c>
-      <c r="E5" s="5">
-        <v>3153</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7">
-        <v>851</v>
-      </c>
-      <c r="C6" s="7">
-        <v>190</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="J22" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="5">
+        <v>48</v>
+      </c>
+      <c r="C23" s="5">
+        <v>31</v>
+      </c>
+      <c r="D23" s="5">
+        <v>43</v>
+      </c>
+      <c r="E23" s="5">
+        <v>19</v>
+      </c>
+      <c r="F23" s="5">
+        <v>28</v>
+      </c>
+      <c r="G23" s="5">
+        <v>13</v>
+      </c>
+      <c r="H23" s="5">
+        <v>49</v>
+      </c>
+      <c r="I23" s="5">
+        <v>35</v>
+      </c>
+      <c r="J23" s="5">
         <v>266</v>
       </c>
-      <c r="E6" s="7">
-        <v>245</v>
-      </c>
-      <c r="F6" s="7">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1033</v>
+      </c>
+      <c r="C24" s="5">
+        <v>778</v>
+      </c>
+      <c r="D24" s="5">
+        <v>791</v>
+      </c>
+      <c r="E24" s="5">
+        <v>412</v>
+      </c>
+      <c r="F24" s="5">
+        <v>365</v>
+      </c>
+      <c r="G24" s="5">
+        <v>653</v>
+      </c>
+      <c r="H24" s="5">
+        <v>634</v>
+      </c>
+      <c r="I24" s="5">
+        <v>641</v>
+      </c>
+      <c r="J24" s="5">
+        <v>5307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="5">
+        <v>39</v>
+      </c>
+      <c r="C25" s="5">
+        <v>48</v>
+      </c>
+      <c r="D25" s="5">
+        <v>73</v>
+      </c>
+      <c r="E25" s="5">
+        <v>34</v>
+      </c>
+      <c r="F25" s="5">
+        <v>31</v>
+      </c>
+      <c r="G25" s="5">
+        <v>37</v>
+      </c>
+      <c r="H25" s="5">
+        <v>54</v>
+      </c>
+      <c r="I25" s="5">
+        <v>76</v>
+      </c>
+      <c r="J25" s="5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="5">
+        <v>272</v>
+      </c>
+      <c r="C26" s="5">
+        <v>200</v>
+      </c>
+      <c r="D26" s="5">
+        <v>214</v>
+      </c>
+      <c r="E26" s="5">
+        <v>128</v>
+      </c>
+      <c r="F26" s="5">
+        <v>143</v>
+      </c>
+      <c r="G26" s="5">
+        <v>84</v>
+      </c>
+      <c r="H26" s="5">
+        <v>145</v>
+      </c>
+      <c r="I26" s="5">
+        <v>149</v>
+      </c>
+      <c r="J26" s="5">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5">
+        <v>3</v>
+      </c>
+      <c r="J27" s="5">
         <v>5</v>
       </c>
-      <c r="D7" s="7">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="5">
         <v>2</v>
       </c>
-      <c r="E7" s="7">
+      <c r="C28" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="7">
+      <c r="D28" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="7">
-        <v>325</v>
-      </c>
-      <c r="C8" s="7">
-        <v>132</v>
-      </c>
-      <c r="D8" s="7">
-        <v>65</v>
-      </c>
-      <c r="E8" s="7">
-        <v>90</v>
-      </c>
-      <c r="F8" s="7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7">
-        <v>202</v>
-      </c>
-      <c r="C9" s="7">
-        <v>58</v>
-      </c>
-      <c r="D9" s="7">
-        <v>64</v>
-      </c>
-      <c r="E9" s="7">
-        <v>38</v>
-      </c>
-      <c r="F9" s="7">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="7">
-        <v>143</v>
-      </c>
-      <c r="C10" s="7">
-        <v>37</v>
-      </c>
-      <c r="D10" s="7">
-        <v>52</v>
-      </c>
-      <c r="E10" s="7">
-        <v>41</v>
-      </c>
-      <c r="F10" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="7">
-        <v>105</v>
-      </c>
-      <c r="C11" s="7">
-        <v>47</v>
-      </c>
-      <c r="D11" s="7">
-        <v>27</v>
-      </c>
-      <c r="E11" s="7">
-        <v>16</v>
-      </c>
-      <c r="F11" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="7">
-        <v>87</v>
-      </c>
-      <c r="C12" s="7">
-        <v>29</v>
-      </c>
-      <c r="D12" s="7">
-        <v>23</v>
-      </c>
-      <c r="E12" s="7">
-        <v>24</v>
-      </c>
-      <c r="F12" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="7">
-        <v>166</v>
-      </c>
-      <c r="C13" s="7">
-        <v>63</v>
-      </c>
-      <c r="D13" s="7">
-        <v>23</v>
-      </c>
-      <c r="E13" s="7">
-        <v>67</v>
-      </c>
-      <c r="F13" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="7">
-        <v>12</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="E28" s="5">
         <v>3</v>
       </c>
-      <c r="D14" s="7">
+      <c r="F28" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="7">
-        <v>4</v>
-      </c>
-      <c r="F14" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="7">
-        <v>658</v>
-      </c>
-      <c r="C15" s="7">
-        <v>234</v>
-      </c>
-      <c r="D15" s="7">
-        <v>162</v>
-      </c>
-      <c r="E15" s="7">
-        <v>181</v>
-      </c>
-      <c r="F15" s="7">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="7">
-        <v>156</v>
-      </c>
-      <c r="C16" s="7">
-        <v>53</v>
-      </c>
-      <c r="D16" s="7">
-        <v>38</v>
-      </c>
-      <c r="E16" s="7">
-        <v>47</v>
-      </c>
-      <c r="F16" s="7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="7">
-        <v>399</v>
-      </c>
-      <c r="C17" s="7">
-        <v>139</v>
-      </c>
-      <c r="D17" s="7">
-        <v>128</v>
-      </c>
-      <c r="E17" s="7">
-        <v>91</v>
-      </c>
-      <c r="F17" s="7">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="7">
-        <v>1521</v>
-      </c>
-      <c r="C18" s="7">
-        <v>547</v>
-      </c>
-      <c r="D18" s="7">
-        <v>380</v>
-      </c>
-      <c r="E18" s="7">
-        <v>453</v>
-      </c>
-      <c r="F18" s="7">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="7">
-        <v>1678</v>
-      </c>
-      <c r="C19" s="7">
-        <v>527</v>
-      </c>
-      <c r="D19" s="7">
-        <v>421</v>
-      </c>
-      <c r="E19" s="7">
-        <v>454</v>
-      </c>
-      <c r="F19" s="7">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="7">
-        <v>503</v>
-      </c>
-      <c r="C20" s="7">
-        <v>152</v>
-      </c>
-      <c r="D20" s="7">
-        <v>134</v>
-      </c>
-      <c r="E20" s="7">
-        <v>135</v>
-      </c>
-      <c r="F20" s="7">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="7">
-        <v>4</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7">
-        <v>3</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="7">
-        <v>275</v>
-      </c>
-      <c r="C22" s="7">
-        <v>95</v>
-      </c>
-      <c r="D22" s="7">
-        <v>71</v>
-      </c>
-      <c r="E22" s="7">
-        <v>79</v>
-      </c>
-      <c r="F22" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="7">
-        <v>117</v>
-      </c>
-      <c r="C23" s="7">
-        <v>63</v>
-      </c>
-      <c r="D23" s="7">
-        <v>22</v>
-      </c>
-      <c r="E23" s="7">
-        <v>21</v>
-      </c>
-      <c r="F23" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="7">
-        <v>37</v>
-      </c>
-      <c r="C24" s="7">
-        <v>12</v>
-      </c>
-      <c r="D24" s="7">
-        <v>11</v>
-      </c>
-      <c r="E24" s="7">
-        <v>10</v>
-      </c>
-      <c r="F24" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="7">
-        <v>8</v>
-      </c>
-      <c r="C25" s="7">
-        <v>4</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="7">
-        <v>2</v>
-      </c>
-      <c r="F25" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="7">
-        <v>120</v>
-      </c>
-      <c r="C26" s="7">
-        <v>46</v>
-      </c>
-      <c r="D26" s="7">
-        <v>20</v>
-      </c>
-      <c r="E26" s="7">
-        <v>38</v>
-      </c>
-      <c r="F26" s="7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="7">
-        <v>3000</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1039</v>
-      </c>
-      <c r="D27" s="7">
-        <v>782</v>
-      </c>
-      <c r="E27" s="7">
-        <v>799</v>
-      </c>
-      <c r="F27" s="7">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="7">
-        <v>234</v>
-      </c>
-      <c r="C28" s="7">
-        <v>44</v>
-      </c>
-      <c r="D28" s="7">
-        <v>63</v>
-      </c>
-      <c r="E28" s="7">
-        <v>88</v>
-      </c>
-      <c r="F28" s="7">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="7">
-        <v>813</v>
-      </c>
-      <c r="C29" s="7">
-        <v>251</v>
-      </c>
-      <c r="D29" s="7">
-        <v>216</v>
-      </c>
-      <c r="E29" s="7">
-        <v>229</v>
-      </c>
-      <c r="F29" s="7">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="7">
-        <v>1</v>
-      </c>
-      <c r="C30" s="7">
-        <v>1</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5">
+        <v>102</v>
+      </c>
+      <c r="J28" s="5">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:F2"/>
-  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="eDocument" ma:contentTypeID="0x0101000BC94875665D404BB1351B53C41FD2C000E5CBA74D75A77049B177D97877D56E03" ma:contentTypeVersion="163" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="85309ccccff480a81818d539d3482032">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f94102a1-1d6c-4502-ac27-91905b9321dd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3659751ca266c6383aa8c59766733bc" ns2:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <m02c691f3efa402dab5cbaa8c240a9e7 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Statistics</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">9ba6f678-e647-4dac-946a-fcabffeb8025</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">#Reports</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">139e42fd-3e09-4439-bba7-8aeac7f033ff</TermId>
+        </TermInfo>
+      </Terms>
+    </m02c691f3efa402dab5cbaa8c240a9e7>
+    <TaxCatchAll xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
+      <Value>8</Value>
+      <Value>5</Value>
+      <Value>10</Value>
+      <Value>1</Value>
+      <Value>7</Value>
+    </TaxCatchAll>
+    <eDocs_FileStatus xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">Live</eDocs_FileStatus>
+    <h1f8bb4843d6459a8b809123185593c7 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">218</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">d1f665d0-1ea2-48c4-9fae-9dfb881d0110</TermId>
+        </TermInfo>
+      </Terms>
+    </h1f8bb4843d6459a8b809123185593c7>
+    <fbaa881fc4ae443f9fdafbdd527793df xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </fbaa881fc4ae443f9fdafbdd527793df>
+    <_vti_ItemDeclaredRecord xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd" xsi:nil="true"/>
+    <nb1b8a72855341e18dd75ce464e281f2 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2023</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">720401db-42e9-4f5b-a7dd-0e2a6af555be</TermId>
+        </TermInfo>
+      </Terms>
+    </nb1b8a72855341e18dd75ce464e281f2>
+    <eDocs_eFileName xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">ENT218-001-2023</eDocs_eFileName>
+    <mbbd3fafa5ab4e5eb8a6a5e099cef439 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Unclassified</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">779752a3-a421-4077-839c-91815f544ae2</TermId>
+        </TermInfo>
+      </Terms>
+    </mbbd3fafa5ab4e5eb8a6a5e099cef439>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="eDocument" ma:contentTypeID="0x0101000BC94875665D404BB1351B53C41FD2C000E5CBA74D75A77049B177D97877D56E03" ma:contentTypeVersion="181" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="9aef13b51d858ac71ab25d278c7edb31">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f94102a1-1d6c-4502-ac27-91905b9321dd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="992d5dd0ba35d17e896caa4d336a12f8" ns2:_="">
     <xsd:import namespace="f94102a1-1d6c-4502-ac27-91905b9321dd"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -1356,7 +1718,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1365,47 +1727,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <m02c691f3efa402dab5cbaa8c240a9e7 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m02c691f3efa402dab5cbaa8c240a9e7>
-    <TaxCatchAll xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
-      <Value>5</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-    <eDocs_FileStatus xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">Live</eDocs_FileStatus>
-    <h1f8bb4843d6459a8b809123185593c7 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">218</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">d1f665d0-1ea2-48c4-9fae-9dfb881d0110</TermId>
-        </TermInfo>
-      </Terms>
-    </h1f8bb4843d6459a8b809123185593c7>
-    <fbaa881fc4ae443f9fdafbdd527793df xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </fbaa881fc4ae443f9fdafbdd527793df>
-    <_vti_ItemDeclaredRecord xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd" xsi:nil="true"/>
-    <nb1b8a72855341e18dd75ce464e281f2 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </nb1b8a72855341e18dd75ce464e281f2>
-    <eDocs_eFileName xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd" xsi:nil="true"/>
-    <mbbd3fafa5ab4e5eb8a6a5e099cef439 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Unclassified</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">779752a3-a421-4077-839c-91815f544ae2</TermId>
-        </TermInfo>
-      </Terms>
-    </mbbd3fafa5ab4e5eb8a6a5e099cef439>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C21AE6DE-3175-495A-A17E-D0E99B809474}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f94102a1-1d6c-4502-ac27-91905b9321dd"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E1E16D1-EC10-42F9-B43D-90CBE88EAB78}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B108816-A320-4B4D-AA78-5AC5E5B9002A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -1422,26 +1761,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AB266C0-6B58-4D42-946C-C895C0342199}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C21AE6DE-3175-495A-A17E-D0E99B809474}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="f94102a1-1d6c-4502-ac27-91905b9321dd"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>